--- a/data/pca/factorExposure/factorExposure_2016-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01081626811964343</v>
+        <v>0.01338795492883733</v>
       </c>
       <c r="C2">
-        <v>-0.05211808712355796</v>
+        <v>0.03755919362776265</v>
       </c>
       <c r="D2">
-        <v>-0.04140367553420223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05493995013122529</v>
+      </c>
+      <c r="E2">
+        <v>-0.08684246915116055</v>
+      </c>
+      <c r="F2">
+        <v>0.08445363473976505</v>
+      </c>
+      <c r="G2">
+        <v>0.003601638651319209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03926593607630095</v>
+        <v>0.0250244072459921</v>
       </c>
       <c r="C3">
-        <v>-0.1194027233035747</v>
+        <v>0.06936279838637477</v>
       </c>
       <c r="D3">
-        <v>-0.09584362867860513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07337249537050707</v>
+      </c>
+      <c r="E3">
+        <v>-0.06631072843702644</v>
+      </c>
+      <c r="F3">
+        <v>-0.02306442220101909</v>
+      </c>
+      <c r="G3">
+        <v>0.04403816514455781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05836039234651302</v>
+        <v>0.05703119688280676</v>
       </c>
       <c r="C4">
-        <v>-0.06147820424834204</v>
+        <v>0.0649117570113399</v>
       </c>
       <c r="D4">
-        <v>-0.02772479484289663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05019993016010379</v>
+      </c>
+      <c r="E4">
+        <v>-0.08355975088183389</v>
+      </c>
+      <c r="F4">
+        <v>0.06037909297142386</v>
+      </c>
+      <c r="G4">
+        <v>0.07711810181834193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03930412533517356</v>
+        <v>0.03490217376303719</v>
       </c>
       <c r="C6">
-        <v>-0.03736735183040837</v>
+        <v>0.0289076383419588</v>
       </c>
       <c r="D6">
-        <v>-0.0326284158930904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0583892945329934</v>
+      </c>
+      <c r="E6">
+        <v>-0.08720999414468984</v>
+      </c>
+      <c r="F6">
+        <v>0.04586151147846422</v>
+      </c>
+      <c r="G6">
+        <v>0.06107850093211404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02119739008444543</v>
+        <v>0.01724819035637874</v>
       </c>
       <c r="C7">
-        <v>-0.0470213995632732</v>
+        <v>0.03983873038352084</v>
       </c>
       <c r="D7">
-        <v>0.01016496401367052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03201779177206599</v>
+      </c>
+      <c r="E7">
+        <v>-0.06099662461115071</v>
+      </c>
+      <c r="F7">
+        <v>0.09260077204547168</v>
+      </c>
+      <c r="G7">
+        <v>0.06936772557752197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004700341445472204</v>
+        <v>0.002514363031728446</v>
       </c>
       <c r="C8">
-        <v>-0.03505236186412458</v>
+        <v>0.03170571334448003</v>
       </c>
       <c r="D8">
-        <v>-0.02614908026070678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02957024002000001</v>
+      </c>
+      <c r="E8">
+        <v>-0.05774285668330077</v>
+      </c>
+      <c r="F8">
+        <v>0.03162835010657034</v>
+      </c>
+      <c r="G8">
+        <v>0.03125470999072635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03284767645345858</v>
+        <v>0.03656151460518381</v>
       </c>
       <c r="C9">
-        <v>-0.04957366629354921</v>
+        <v>0.05246086557746393</v>
       </c>
       <c r="D9">
-        <v>-0.01207643341383309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0356649366943995</v>
+      </c>
+      <c r="E9">
+        <v>-0.07128331815395678</v>
+      </c>
+      <c r="F9">
+        <v>0.07225593233436045</v>
+      </c>
+      <c r="G9">
+        <v>0.06712686930663504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08219256908792109</v>
+        <v>0.1055005627201155</v>
       </c>
       <c r="C10">
-        <v>0.1876993869738887</v>
+        <v>-0.1951215290614525</v>
       </c>
       <c r="D10">
-        <v>0.009479937414779684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0140147677407255</v>
+      </c>
+      <c r="E10">
+        <v>-0.04041162527933987</v>
+      </c>
+      <c r="F10">
+        <v>0.02476426451043035</v>
+      </c>
+      <c r="G10">
+        <v>0.02666930796027867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04046645257576916</v>
+        <v>0.03573448701232933</v>
       </c>
       <c r="C11">
-        <v>-0.05331480910659268</v>
+        <v>0.04915562802630855</v>
       </c>
       <c r="D11">
-        <v>-0.009830621196096481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02986468203709692</v>
+      </c>
+      <c r="E11">
+        <v>-0.02439633914412505</v>
+      </c>
+      <c r="F11">
+        <v>0.05589455117674042</v>
+      </c>
+      <c r="G11">
+        <v>0.05319611131799252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04221600313975013</v>
+        <v>0.03762897864655169</v>
       </c>
       <c r="C12">
-        <v>-0.04968406094014942</v>
+        <v>0.0468271268120537</v>
       </c>
       <c r="D12">
-        <v>-0.001139233216970861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02410362133991047</v>
+      </c>
+      <c r="E12">
+        <v>-0.03271557490478572</v>
+      </c>
+      <c r="F12">
+        <v>0.05758403032237866</v>
+      </c>
+      <c r="G12">
+        <v>0.05019656196412508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0128037610008238</v>
+        <v>0.01015884513205044</v>
       </c>
       <c r="C13">
-        <v>-0.0551905167112499</v>
+        <v>0.0433164032003605</v>
       </c>
       <c r="D13">
-        <v>-0.007471012907043144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04200216828630646</v>
+      </c>
+      <c r="E13">
+        <v>-0.09562363130485102</v>
+      </c>
+      <c r="F13">
+        <v>0.08215828983111638</v>
+      </c>
+      <c r="G13">
+        <v>0.07604565219425106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006732718998978437</v>
+        <v>0.003734963782415644</v>
       </c>
       <c r="C14">
-        <v>-0.04307078267494942</v>
+        <v>0.03425882474531339</v>
       </c>
       <c r="D14">
-        <v>0.01236741676961313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02205481944387622</v>
+      </c>
+      <c r="E14">
+        <v>-0.04927249698410211</v>
+      </c>
+      <c r="F14">
+        <v>0.09245520198436723</v>
+      </c>
+      <c r="G14">
+        <v>0.05488066822611797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002749587176990713</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005171614684925597</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007266685322140642</v>
+      </c>
+      <c r="E15">
+        <v>-0.004218168902251634</v>
+      </c>
+      <c r="F15">
+        <v>0.006210476463029744</v>
+      </c>
+      <c r="G15">
+        <v>0.004446536628870634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03750261963536702</v>
+        <v>0.03364911914645618</v>
       </c>
       <c r="C16">
-        <v>-0.05065371905436476</v>
+        <v>0.04588076152275859</v>
       </c>
       <c r="D16">
-        <v>-0.00536045603790996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0236007089393885</v>
+      </c>
+      <c r="E16">
+        <v>-0.0391730751791572</v>
+      </c>
+      <c r="F16">
+        <v>0.06180481952986498</v>
+      </c>
+      <c r="G16">
+        <v>0.03930442061257821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0209814456850241</v>
+        <v>0.01581254550069447</v>
       </c>
       <c r="C19">
-        <v>-0.06452089173599855</v>
+        <v>0.04635645321223807</v>
       </c>
       <c r="D19">
-        <v>-0.08987862257773421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08774474783496199</v>
+      </c>
+      <c r="E19">
+        <v>-0.1114871124629838</v>
+      </c>
+      <c r="F19">
+        <v>0.07729775472908018</v>
+      </c>
+      <c r="G19">
+        <v>0.02474675571637879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0157109290896337</v>
+        <v>0.01255600345046153</v>
       </c>
       <c r="C20">
-        <v>-0.04853802947141585</v>
+        <v>0.03928453656076811</v>
       </c>
       <c r="D20">
-        <v>-0.007912464094681267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02978171845162424</v>
+      </c>
+      <c r="E20">
+        <v>-0.0760539413647362</v>
+      </c>
+      <c r="F20">
+        <v>0.06827392541889521</v>
+      </c>
+      <c r="G20">
+        <v>0.05055681735974889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009444459699320045</v>
+        <v>0.008593636735978629</v>
       </c>
       <c r="C21">
-        <v>-0.05152936885979081</v>
+        <v>0.04228159497549488</v>
       </c>
       <c r="D21">
-        <v>-0.03653043889547775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05583412835716246</v>
+      </c>
+      <c r="E21">
+        <v>-0.1167264527539571</v>
+      </c>
+      <c r="F21">
+        <v>0.1087240680554593</v>
+      </c>
+      <c r="G21">
+        <v>0.07763645057320225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001181917119729621</v>
+        <v>0.002284122349968993</v>
       </c>
       <c r="C22">
-        <v>-0.0006009852282996465</v>
+        <v>0.0265818832876346</v>
       </c>
       <c r="D22">
-        <v>-0.002504698804265204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0423363267264656</v>
+      </c>
+      <c r="E22">
+        <v>-0.04081074548336056</v>
+      </c>
+      <c r="F22">
+        <v>-0.0005718045823942074</v>
+      </c>
+      <c r="G22">
+        <v>0.05248285919052203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001187547320758899</v>
+        <v>0.002362179617098201</v>
       </c>
       <c r="C23">
-        <v>-0.0006011707212518389</v>
+        <v>0.02673486036885775</v>
       </c>
       <c r="D23">
-        <v>-0.002510454261581289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04192605800206819</v>
+      </c>
+      <c r="E23">
+        <v>-0.04106279915270979</v>
+      </c>
+      <c r="F23">
+        <v>-0.0008370819705420307</v>
+      </c>
+      <c r="G23">
+        <v>0.05255104857899213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03444060086705444</v>
+        <v>0.03363639839067847</v>
       </c>
       <c r="C24">
-        <v>-0.05157050324516181</v>
+        <v>0.05319344119256244</v>
       </c>
       <c r="D24">
-        <v>-0.005804156115424612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02331503547591775</v>
+      </c>
+      <c r="E24">
+        <v>-0.03985662550398208</v>
+      </c>
+      <c r="F24">
+        <v>0.06549230815106989</v>
+      </c>
+      <c r="G24">
+        <v>0.04996057904501545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04743721162701894</v>
+        <v>0.04288624570916583</v>
       </c>
       <c r="C25">
-        <v>-0.06301491575426789</v>
+        <v>0.05733250171502476</v>
       </c>
       <c r="D25">
-        <v>0.004239829866031461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02255590042057883</v>
+      </c>
+      <c r="E25">
+        <v>-0.02975426117584769</v>
+      </c>
+      <c r="F25">
+        <v>0.0601581061533845</v>
+      </c>
+      <c r="G25">
+        <v>0.06556455046876991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01543625891900265</v>
+        <v>0.01424629115017086</v>
       </c>
       <c r="C26">
-        <v>-0.01885472590202687</v>
+        <v>0.01830958753020469</v>
       </c>
       <c r="D26">
-        <v>-0.0004784311922968087</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02216697339950996</v>
+      </c>
+      <c r="E26">
+        <v>-0.04945124664464195</v>
+      </c>
+      <c r="F26">
+        <v>0.06789110769103751</v>
+      </c>
+      <c r="G26">
+        <v>0.02794373749260159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09651694966012188</v>
+        <v>0.1404625892174473</v>
       </c>
       <c r="C28">
-        <v>0.24222608036695</v>
+        <v>-0.248553878416044</v>
       </c>
       <c r="D28">
-        <v>0.009458652521888447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02927124933820007</v>
+      </c>
+      <c r="E28">
+        <v>-0.05605110126492257</v>
+      </c>
+      <c r="F28">
+        <v>0.04114318253084138</v>
+      </c>
+      <c r="G28">
+        <v>0.04643778130795147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006061140154766005</v>
+        <v>0.004535583204454342</v>
       </c>
       <c r="C29">
-        <v>-0.03504133894298543</v>
+        <v>0.03056701135548316</v>
       </c>
       <c r="D29">
-        <v>0.01636305946382817</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01588005855664799</v>
+      </c>
+      <c r="E29">
+        <v>-0.04767890216772992</v>
+      </c>
+      <c r="F29">
+        <v>0.08157904617568881</v>
+      </c>
+      <c r="G29">
+        <v>0.06349564160512537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04371347872768377</v>
+        <v>0.03972256325533359</v>
       </c>
       <c r="C30">
-        <v>-0.05455237864028152</v>
+        <v>0.05757929150834611</v>
       </c>
       <c r="D30">
-        <v>-0.06595114264429115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09609918323092964</v>
+      </c>
+      <c r="E30">
+        <v>-0.07696289809564698</v>
+      </c>
+      <c r="F30">
+        <v>0.08526779318849555</v>
+      </c>
+      <c r="G30">
+        <v>0.03992948828131812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05765606216476848</v>
+        <v>0.0563526347275304</v>
       </c>
       <c r="C31">
-        <v>-0.04585563720917754</v>
+        <v>0.06186848713623756</v>
       </c>
       <c r="D31">
-        <v>0.03431235031955373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01630139767816285</v>
+      </c>
+      <c r="E31">
+        <v>-0.06520131485601828</v>
+      </c>
+      <c r="F31">
+        <v>0.04500733431861442</v>
+      </c>
+      <c r="G31">
+        <v>0.07871434847228061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001115220774435058</v>
+        <v>0.004961650829836394</v>
       </c>
       <c r="C32">
-        <v>-0.04055165547578454</v>
+        <v>0.03347245145229528</v>
       </c>
       <c r="D32">
-        <v>-0.04686751501272246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05299255345837098</v>
+      </c>
+      <c r="E32">
+        <v>-0.05752225538563085</v>
+      </c>
+      <c r="F32">
+        <v>0.07062540393116735</v>
+      </c>
+      <c r="G32">
+        <v>0.03271769396375637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0293924941246963</v>
+        <v>0.02467009673568448</v>
       </c>
       <c r="C33">
-        <v>-0.06315740980790047</v>
+        <v>0.05539021931331962</v>
       </c>
       <c r="D33">
-        <v>-0.03743046935401947</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06897286704416726</v>
+      </c>
+      <c r="E33">
+        <v>-0.08913766082273422</v>
+      </c>
+      <c r="F33">
+        <v>0.09551747569050358</v>
+      </c>
+      <c r="G33">
+        <v>0.07778594556452297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04448228856553654</v>
+        <v>0.03988891869331875</v>
       </c>
       <c r="C34">
-        <v>-0.06818641951009734</v>
+        <v>0.06535834341704519</v>
       </c>
       <c r="D34">
-        <v>-0.01273139618966393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03612389079136081</v>
+      </c>
+      <c r="E34">
+        <v>-0.01247398530499663</v>
+      </c>
+      <c r="F34">
+        <v>0.06749113491592094</v>
+      </c>
+      <c r="G34">
+        <v>0.05118098625836123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01594769102096176</v>
+        <v>0.01383151140736819</v>
       </c>
       <c r="C36">
-        <v>-0.01797559445458947</v>
+        <v>0.01408778028317301</v>
       </c>
       <c r="D36">
-        <v>0.005147468457552131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02127472924675009</v>
+      </c>
+      <c r="E36">
+        <v>-0.0570014222226345</v>
+      </c>
+      <c r="F36">
+        <v>0.06276867418736905</v>
+      </c>
+      <c r="G36">
+        <v>0.04882707543617831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02914133318405958</v>
+        <v>0.02270721134429629</v>
       </c>
       <c r="C38">
-        <v>-0.03054236906664127</v>
+        <v>0.02398307205015561</v>
       </c>
       <c r="D38">
-        <v>0.01548836326863849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01898277647618343</v>
+      </c>
+      <c r="E38">
+        <v>-0.04873741605962698</v>
+      </c>
+      <c r="F38">
+        <v>0.05070451652930027</v>
+      </c>
+      <c r="G38">
+        <v>0.03286446879202191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04472435165390685</v>
+        <v>0.03876585992049384</v>
       </c>
       <c r="C39">
-        <v>-0.06673727939082315</v>
+        <v>0.06502569092038482</v>
       </c>
       <c r="D39">
-        <v>-0.01455129573214228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04755542273596768</v>
+      </c>
+      <c r="E39">
+        <v>-0.04560717549436399</v>
+      </c>
+      <c r="F39">
+        <v>0.08522138701800172</v>
+      </c>
+      <c r="G39">
+        <v>0.03853037254830414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01237634594727956</v>
+        <v>0.01278835486855414</v>
       </c>
       <c r="C40">
-        <v>-0.05201935517401863</v>
+        <v>0.03794436141031136</v>
       </c>
       <c r="D40">
-        <v>-0.0143199501044937</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02728962679174139</v>
+      </c>
+      <c r="E40">
+        <v>-0.08219314094428792</v>
+      </c>
+      <c r="F40">
+        <v>0.05611976765467633</v>
+      </c>
+      <c r="G40">
+        <v>0.08833400070739451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02219466563087959</v>
+        <v>0.01909573363530332</v>
       </c>
       <c r="C41">
-        <v>-0.01495899956724795</v>
+        <v>0.0108398807633003</v>
       </c>
       <c r="D41">
-        <v>1.150437663634039e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01421036080412143</v>
+      </c>
+      <c r="E41">
+        <v>-0.05778433425213263</v>
+      </c>
+      <c r="F41">
+        <v>0.05754484508324328</v>
+      </c>
+      <c r="G41">
+        <v>0.0408516415644923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03932136988224142</v>
+        <v>0.02899986432026456</v>
       </c>
       <c r="C43">
-        <v>-0.03566678947937024</v>
+        <v>0.02558891264024729</v>
       </c>
       <c r="D43">
-        <v>-0.0264330195535048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04104128248247223</v>
+      </c>
+      <c r="E43">
+        <v>-0.07360157190260393</v>
+      </c>
+      <c r="F43">
+        <v>0.05879741971959593</v>
+      </c>
+      <c r="G43">
+        <v>0.06553843405815829</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01233379211390441</v>
+        <v>0.0136448410188498</v>
       </c>
       <c r="C44">
-        <v>-0.06821814712423067</v>
+        <v>0.04862621548968708</v>
       </c>
       <c r="D44">
-        <v>-0.007033185508014615</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03001691480195152</v>
+      </c>
+      <c r="E44">
+        <v>-0.08686832903042895</v>
+      </c>
+      <c r="F44">
+        <v>0.06977640134750124</v>
+      </c>
+      <c r="G44">
+        <v>0.03042392566891169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007008695651722478</v>
+        <v>0.007964703596632266</v>
       </c>
       <c r="C46">
-        <v>-0.03073795455638337</v>
+        <v>0.03044852128735827</v>
       </c>
       <c r="D46">
-        <v>0.01828678036365667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009448144401674092</v>
+      </c>
+      <c r="E46">
+        <v>-0.05605384011779133</v>
+      </c>
+      <c r="F46">
+        <v>0.09549953048211061</v>
+      </c>
+      <c r="G46">
+        <v>0.06125076078734678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08372298887700876</v>
+        <v>0.08757716576405652</v>
       </c>
       <c r="C47">
-        <v>-0.07269832953152494</v>
+        <v>0.08274047767347978</v>
       </c>
       <c r="D47">
-        <v>0.02939775412829886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02245489571472858</v>
+      </c>
+      <c r="E47">
+        <v>-0.06730079593485942</v>
+      </c>
+      <c r="F47">
+        <v>0.04238280293075845</v>
+      </c>
+      <c r="G47">
+        <v>0.07740405661915874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01821716783009815</v>
+        <v>0.01620493262352898</v>
       </c>
       <c r="C48">
-        <v>-0.01621968391391429</v>
+        <v>0.01692968614041782</v>
       </c>
       <c r="D48">
-        <v>0.01924760070424307</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.009066064727130341</v>
+      </c>
+      <c r="E48">
+        <v>-0.0666290406727164</v>
+      </c>
+      <c r="F48">
+        <v>0.07986496994911732</v>
+      </c>
+      <c r="G48">
+        <v>0.05670804970211214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0802268684536247</v>
+        <v>0.06983455194574095</v>
       </c>
       <c r="C50">
-        <v>-0.08381848969955415</v>
+        <v>0.07688251577480792</v>
       </c>
       <c r="D50">
-        <v>0.03053616838642493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007748024890679947</v>
+      </c>
+      <c r="E50">
+        <v>-0.07433436807122638</v>
+      </c>
+      <c r="F50">
+        <v>0.01974151280174026</v>
+      </c>
+      <c r="G50">
+        <v>0.09385198267849644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01450556957001218</v>
+        <v>0.009137592715558222</v>
       </c>
       <c r="C51">
-        <v>-0.04988146400940242</v>
+        <v>0.03226786290023299</v>
       </c>
       <c r="D51">
-        <v>-0.0302525796679226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05125250325087043</v>
+      </c>
+      <c r="E51">
+        <v>-0.04830904607086471</v>
+      </c>
+      <c r="F51">
+        <v>0.08124051460183308</v>
+      </c>
+      <c r="G51">
+        <v>0.03582484729912176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08235357216606148</v>
+        <v>0.09471545854984714</v>
       </c>
       <c r="C53">
-        <v>-0.07832146661543896</v>
+        <v>0.08785146318942998</v>
       </c>
       <c r="D53">
-        <v>0.05165353154870671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05558157958862989</v>
+      </c>
+      <c r="E53">
+        <v>-0.06084516775763914</v>
+      </c>
+      <c r="F53">
+        <v>0.04024767762025934</v>
+      </c>
+      <c r="G53">
+        <v>0.0784407083267992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03234066959720688</v>
+        <v>0.02712255385422408</v>
       </c>
       <c r="C54">
-        <v>-0.03849155072229273</v>
+        <v>0.03298613448628874</v>
       </c>
       <c r="D54">
-        <v>0.002567254693713285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0234251603284797</v>
+      </c>
+      <c r="E54">
+        <v>-0.05601316677831877</v>
+      </c>
+      <c r="F54">
+        <v>0.08637280792581212</v>
+      </c>
+      <c r="G54">
+        <v>0.06155004383472109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07550255985176584</v>
+        <v>0.08594430001050747</v>
       </c>
       <c r="C55">
-        <v>-0.05851651617533101</v>
+        <v>0.07073538889449756</v>
       </c>
       <c r="D55">
-        <v>0.05646822565779679</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0581887521294849</v>
+      </c>
+      <c r="E55">
+        <v>-0.04341583865750877</v>
+      </c>
+      <c r="F55">
+        <v>0.02196165512876008</v>
+      </c>
+      <c r="G55">
+        <v>0.05961812825575301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1467183851349634</v>
+        <v>0.148488813826833</v>
       </c>
       <c r="C56">
-        <v>-0.0944566431504064</v>
+        <v>0.1080729467210397</v>
       </c>
       <c r="D56">
-        <v>0.04878405487048967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05455589555177986</v>
+      </c>
+      <c r="E56">
+        <v>-0.0419315906811932</v>
+      </c>
+      <c r="F56">
+        <v>-0.00288832294293356</v>
+      </c>
+      <c r="G56">
+        <v>0.04159507563078119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04633286328978753</v>
+        <v>0.02813002137798383</v>
       </c>
       <c r="C58">
-        <v>-0.02266367462378461</v>
+        <v>0.02330168616283598</v>
       </c>
       <c r="D58">
-        <v>-0.706698369891492</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3750615232714063</v>
+      </c>
+      <c r="E58">
+        <v>-0.6647699795673143</v>
+      </c>
+      <c r="F58">
+        <v>-0.4851759735443321</v>
+      </c>
+      <c r="G58">
+        <v>-0.3202362089775514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1348957613959118</v>
+        <v>0.1473853371396387</v>
       </c>
       <c r="C59">
-        <v>0.1957320155425608</v>
+        <v>-0.1859828768580129</v>
       </c>
       <c r="D59">
-        <v>-0.02359216505020973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02573087467002212</v>
+      </c>
+      <c r="E59">
+        <v>-0.02851489657796487</v>
+      </c>
+      <c r="F59">
+        <v>0.0287505303594627</v>
+      </c>
+      <c r="G59">
+        <v>-0.02031228820872098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3084478204002475</v>
+        <v>0.2787488700392678</v>
       </c>
       <c r="C60">
-        <v>-0.1084028569597021</v>
+        <v>0.1081040100469595</v>
       </c>
       <c r="D60">
-        <v>-0.1577257216154333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2658096871804708</v>
+      </c>
+      <c r="E60">
+        <v>0.2390016003069863</v>
+      </c>
+      <c r="F60">
+        <v>-0.07642196187377977</v>
+      </c>
+      <c r="G60">
+        <v>0.03818093515160621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04284935969959018</v>
+        <v>0.03999402217265133</v>
       </c>
       <c r="C61">
-        <v>-0.06459030107925869</v>
+        <v>0.06109129559422791</v>
       </c>
       <c r="D61">
-        <v>-0.009782066364922008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03886326224155528</v>
+      </c>
+      <c r="E61">
+        <v>-0.0484499067273646</v>
+      </c>
+      <c r="F61">
+        <v>0.0676707905477586</v>
+      </c>
+      <c r="G61">
+        <v>0.05702551055741883</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01546056283236202</v>
+        <v>0.01445457124616697</v>
       </c>
       <c r="C63">
-        <v>-0.03507827182768617</v>
+        <v>0.03213451498923955</v>
       </c>
       <c r="D63">
-        <v>0.01705810036414436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01467645525425255</v>
+      </c>
+      <c r="E63">
+        <v>-0.05931745295298654</v>
+      </c>
+      <c r="F63">
+        <v>0.05325041811242247</v>
+      </c>
+      <c r="G63">
+        <v>0.06524228021191002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04907621183355663</v>
+        <v>0.05461805392398822</v>
       </c>
       <c r="C64">
-        <v>-0.04821200595345197</v>
+        <v>0.05833933602883876</v>
       </c>
       <c r="D64">
-        <v>0.002094684546390419</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.002887302344219829</v>
+      </c>
+      <c r="E64">
+        <v>-0.03524296547919104</v>
+      </c>
+      <c r="F64">
+        <v>0.07273742312252536</v>
+      </c>
+      <c r="G64">
+        <v>0.04940229351013149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08247418991962102</v>
+        <v>0.06675964037010469</v>
       </c>
       <c r="C65">
-        <v>-0.02909965720843592</v>
+        <v>0.02831882816215847</v>
       </c>
       <c r="D65">
-        <v>-0.05953257311971111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08583183676655401</v>
+      </c>
+      <c r="E65">
+        <v>-0.0554377956897165</v>
+      </c>
+      <c r="F65">
+        <v>0.009929827357698699</v>
+      </c>
+      <c r="G65">
+        <v>0.02027060415334953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05983083614326806</v>
+        <v>0.05006797002677533</v>
       </c>
       <c r="C66">
-        <v>-0.09215359177990132</v>
+        <v>0.08377080572303762</v>
       </c>
       <c r="D66">
-        <v>-0.03462027225873277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07225198618102649</v>
+      </c>
+      <c r="E66">
+        <v>-0.05428871198345009</v>
+      </c>
+      <c r="F66">
+        <v>0.08176984048067963</v>
+      </c>
+      <c r="G66">
+        <v>0.05550310409148369</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05113044096374769</v>
+        <v>0.04450849504773362</v>
       </c>
       <c r="C67">
-        <v>-0.0322093870468536</v>
+        <v>0.02937523339977367</v>
       </c>
       <c r="D67">
-        <v>0.02237500743841867</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003643105828442654</v>
+      </c>
+      <c r="E67">
+        <v>-0.02571870261959401</v>
+      </c>
+      <c r="F67">
+        <v>0.03710006739833475</v>
+      </c>
+      <c r="G67">
+        <v>0.02884434492689841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1336169866890074</v>
+        <v>0.1554635806397502</v>
       </c>
       <c r="C68">
-        <v>0.2779687306387169</v>
+        <v>-0.2422667223648931</v>
       </c>
       <c r="D68">
-        <v>0.00699754788801536</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01601260534968489</v>
+      </c>
+      <c r="E68">
+        <v>-0.03869414493805568</v>
+      </c>
+      <c r="F68">
+        <v>0.01106073612209601</v>
+      </c>
+      <c r="G68">
+        <v>0.03006046969158733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09054711466508501</v>
+        <v>0.08625644113641061</v>
       </c>
       <c r="C69">
-        <v>-0.07314092575906164</v>
+        <v>0.09029033762722656</v>
       </c>
       <c r="D69">
-        <v>0.04439942030082059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0132312849508343</v>
+      </c>
+      <c r="E69">
+        <v>-0.05299806558280101</v>
+      </c>
+      <c r="F69">
+        <v>0.06969511104386984</v>
+      </c>
+      <c r="G69">
+        <v>0.06924612883141248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1218514140984405</v>
+        <v>0.1476983961233838</v>
       </c>
       <c r="C71">
-        <v>0.2509443867188121</v>
+        <v>-0.2377693080581103</v>
       </c>
       <c r="D71">
-        <v>-0.01430678566340653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001064153396056345</v>
+      </c>
+      <c r="E71">
+        <v>-0.05963422665882201</v>
+      </c>
+      <c r="F71">
+        <v>0.02946206047561542</v>
+      </c>
+      <c r="G71">
+        <v>0.05849210470031642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09076436160814962</v>
+        <v>0.09910978607113059</v>
       </c>
       <c r="C72">
-        <v>-0.05835540111868951</v>
+        <v>0.05968860885859197</v>
       </c>
       <c r="D72">
-        <v>-0.001577862485833232</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02550961047349567</v>
+      </c>
+      <c r="E72">
+        <v>-0.02615062376243831</v>
+      </c>
+      <c r="F72">
+        <v>0.04811720857547248</v>
+      </c>
+      <c r="G72">
+        <v>0.06419415743334056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4039464657097355</v>
+        <v>0.3418465503428318</v>
       </c>
       <c r="C73">
-        <v>-0.05145854626856605</v>
+        <v>0.07256775850995693</v>
       </c>
       <c r="D73">
-        <v>-0.3809671982702714</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5214253991265547</v>
+      </c>
+      <c r="E73">
+        <v>0.4377539765140629</v>
+      </c>
+      <c r="F73">
+        <v>-0.2277434829220026</v>
+      </c>
+      <c r="G73">
+        <v>0.02920349759599567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1039910306276585</v>
+        <v>0.108946803114172</v>
       </c>
       <c r="C74">
-        <v>-0.09627097652428358</v>
+        <v>0.09629273995306148</v>
       </c>
       <c r="D74">
-        <v>0.0301860714796384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04388935669787032</v>
+      </c>
+      <c r="E74">
+        <v>-0.06225473415056822</v>
+      </c>
+      <c r="F74">
+        <v>-0.002752013461598596</v>
+      </c>
+      <c r="G74">
+        <v>0.06691944702270533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2525045886280772</v>
+        <v>0.256381265382944</v>
       </c>
       <c r="C75">
-        <v>-0.1062891768871522</v>
+        <v>0.1340190989092457</v>
       </c>
       <c r="D75">
-        <v>0.1164848698422129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1480633298805845</v>
+      </c>
+      <c r="E75">
+        <v>-0.04352315988931497</v>
+      </c>
+      <c r="F75">
+        <v>-0.04649546606904427</v>
+      </c>
+      <c r="G75">
+        <v>0.009756075118561474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1128449645365203</v>
+        <v>0.12668257077667</v>
       </c>
       <c r="C76">
-        <v>-0.08275532947779632</v>
+        <v>0.0954778149149911</v>
       </c>
       <c r="D76">
-        <v>0.05991091754485205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07484417792688618</v>
+      </c>
+      <c r="E76">
+        <v>-0.0666513827564989</v>
+      </c>
+      <c r="F76">
+        <v>0.01992000025208198</v>
+      </c>
+      <c r="G76">
+        <v>0.05574723881197374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07613242154109852</v>
+        <v>0.0621976577423034</v>
       </c>
       <c r="C77">
-        <v>-0.05564670002651655</v>
+        <v>0.06485635385764077</v>
       </c>
       <c r="D77">
-        <v>-0.04959625128277636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05124104176557997</v>
+      </c>
+      <c r="E77">
+        <v>-0.09899690323214438</v>
+      </c>
+      <c r="F77">
+        <v>0.1573926899379453</v>
+      </c>
+      <c r="G77">
+        <v>-0.1066540857711725</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04750770268480149</v>
+        <v>0.04426867070254683</v>
       </c>
       <c r="C78">
-        <v>-0.04785834780439883</v>
+        <v>0.05688060233848152</v>
       </c>
       <c r="D78">
-        <v>-0.01718326661121167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05692429362670694</v>
+      </c>
+      <c r="E78">
+        <v>-0.05518449453878716</v>
+      </c>
+      <c r="F78">
+        <v>0.07515510184488393</v>
+      </c>
+      <c r="G78">
+        <v>0.04890308472813627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02934470513195672</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04588322845031197</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07489296746273807</v>
+      </c>
+      <c r="E79">
+        <v>-0.0590384901480769</v>
+      </c>
+      <c r="F79">
+        <v>-0.01260234831745607</v>
+      </c>
+      <c r="G79">
+        <v>0.06141829928663665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03840656872222586</v>
+        <v>0.02987058634691266</v>
       </c>
       <c r="C80">
-        <v>-0.04976366955084813</v>
+        <v>0.05100933245078505</v>
       </c>
       <c r="D80">
-        <v>-0.02214278140315433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03618657206444997</v>
+      </c>
+      <c r="E80">
+        <v>-0.01882994425541836</v>
+      </c>
+      <c r="F80">
+        <v>0.04691255492807643</v>
+      </c>
+      <c r="G80">
+        <v>-0.02310324041478573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1382913849815544</v>
+        <v>0.1380880556082801</v>
       </c>
       <c r="C81">
-        <v>-0.07753283160519181</v>
+        <v>0.0955789973329004</v>
       </c>
       <c r="D81">
-        <v>0.08413428806734274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1189964660566429</v>
+      </c>
+      <c r="E81">
+        <v>-0.06752161993797885</v>
+      </c>
+      <c r="F81">
+        <v>-0.02754976054513913</v>
+      </c>
+      <c r="G81">
+        <v>0.02140152124503351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1743167266443569</v>
+        <v>0.210989403375684</v>
       </c>
       <c r="C82">
-        <v>-0.09512372958121866</v>
+        <v>0.1587793004586913</v>
       </c>
       <c r="D82">
-        <v>0.1810693161462894</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2466523571492437</v>
+      </c>
+      <c r="E82">
+        <v>0.02272361083084267</v>
+      </c>
+      <c r="F82">
+        <v>0.05459849981984043</v>
+      </c>
+      <c r="G82">
+        <v>0.04528964473768763</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03934673207888178</v>
+        <v>0.02681800152869303</v>
       </c>
       <c r="C83">
-        <v>-0.03052761568459402</v>
+        <v>0.0432000680781399</v>
       </c>
       <c r="D83">
-        <v>-0.03093508885371165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02916428068420314</v>
+      </c>
+      <c r="E83">
+        <v>-0.02568950126854626</v>
+      </c>
+      <c r="F83">
+        <v>0.04562526566421761</v>
+      </c>
+      <c r="G83">
+        <v>-0.00228715680119176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.763811140803183e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007814957249133384</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001202716865936169</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007615861918231708</v>
+      </c>
+      <c r="F84">
+        <v>0.0009997353003309646</v>
+      </c>
+      <c r="G84">
+        <v>0.0006137674848653755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2197620780623074</v>
+        <v>0.2025825668425932</v>
       </c>
       <c r="C85">
-        <v>-0.1018363020511927</v>
+        <v>0.1168674045685743</v>
       </c>
       <c r="D85">
-        <v>0.147493801489486</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1150379031732141</v>
+      </c>
+      <c r="E85">
+        <v>0.02739585872181692</v>
+      </c>
+      <c r="F85">
+        <v>-0.09261945404391245</v>
+      </c>
+      <c r="G85">
+        <v>0.05689464521205965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005963883783322539</v>
+        <v>0.008607883950274885</v>
       </c>
       <c r="C86">
-        <v>-0.02739035168115347</v>
+        <v>0.02023988947890231</v>
       </c>
       <c r="D86">
-        <v>-0.04337933432936903</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05600561457260807</v>
+      </c>
+      <c r="E86">
+        <v>-0.07333647919767623</v>
+      </c>
+      <c r="F86">
+        <v>0.1146155367625708</v>
+      </c>
+      <c r="G86">
+        <v>0.0555073483917103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02373861309049415</v>
+        <v>0.02406990353991917</v>
       </c>
       <c r="C87">
-        <v>-0.006065156529589796</v>
+        <v>0.01303047507876467</v>
       </c>
       <c r="D87">
-        <v>-0.08204987179563228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0771441820408026</v>
+      </c>
+      <c r="E87">
+        <v>-0.1268889132687238</v>
+      </c>
+      <c r="F87">
+        <v>0.08290296490688204</v>
+      </c>
+      <c r="G87">
+        <v>-3.129461847877026e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.104504672870523</v>
+        <v>0.0907024327924858</v>
       </c>
       <c r="C88">
-        <v>-0.07511176019734656</v>
+        <v>0.06384204891738035</v>
       </c>
       <c r="D88">
-        <v>0.02717663101244561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003660185260666589</v>
+      </c>
+      <c r="E88">
+        <v>-0.04949946007493568</v>
+      </c>
+      <c r="F88">
+        <v>0.07603552158422655</v>
+      </c>
+      <c r="G88">
+        <v>0.02219802881699225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1905151050756889</v>
+        <v>0.2248821560665969</v>
       </c>
       <c r="C89">
-        <v>0.3715379550743284</v>
+        <v>-0.3752509307950395</v>
       </c>
       <c r="D89">
-        <v>0.03020381105992951</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02679593325263455</v>
+      </c>
+      <c r="E89">
+        <v>-0.0651505182466709</v>
+      </c>
+      <c r="F89">
+        <v>0.09123761613111292</v>
+      </c>
+      <c r="G89">
+        <v>-0.0240153396067459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1824285199481749</v>
+        <v>0.2042606478775965</v>
       </c>
       <c r="C90">
-        <v>0.3316620808323941</v>
+        <v>-0.3079104912612446</v>
       </c>
       <c r="D90">
-        <v>0.03295696093306048</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02726168995732354</v>
+      </c>
+      <c r="E90">
+        <v>-0.06682617360743193</v>
+      </c>
+      <c r="F90">
+        <v>0.03853505430231557</v>
+      </c>
+      <c r="G90">
+        <v>0.005066321993905521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1884046768528229</v>
+        <v>0.1854681397077857</v>
       </c>
       <c r="C91">
-        <v>-0.128650505265425</v>
+        <v>0.1455891244432913</v>
       </c>
       <c r="D91">
-        <v>0.1074482215358251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.126020801558771</v>
+      </c>
+      <c r="E91">
+        <v>-0.04667599532491026</v>
+      </c>
+      <c r="F91">
+        <v>-0.01274924874007739</v>
+      </c>
+      <c r="G91">
+        <v>0.02509024341376244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1667290397702824</v>
+        <v>0.1854175862289463</v>
       </c>
       <c r="C92">
-        <v>0.2813597226684679</v>
+        <v>-0.2868663086030459</v>
       </c>
       <c r="D92">
-        <v>0.03108601519997812</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03097596295240386</v>
+      </c>
+      <c r="E92">
+        <v>-0.0700694358611038</v>
+      </c>
+      <c r="F92">
+        <v>0.07637735864368794</v>
+      </c>
+      <c r="G92">
+        <v>0.01652628127949836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2050261929515056</v>
+        <v>0.2268554082233726</v>
       </c>
       <c r="C93">
-        <v>0.3353555872176405</v>
+        <v>-0.3164281306101653</v>
       </c>
       <c r="D93">
-        <v>0.03565288061596076</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02316453644973646</v>
+      </c>
+      <c r="E93">
+        <v>-0.04109429634546504</v>
+      </c>
+      <c r="F93">
+        <v>0.01914105270552493</v>
+      </c>
+      <c r="G93">
+        <v>0.03715538029987362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.330472059687729</v>
+        <v>0.3343271664490269</v>
       </c>
       <c r="C94">
-        <v>-0.159232630466591</v>
+        <v>0.1946912129667899</v>
       </c>
       <c r="D94">
-        <v>0.3545033092172583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4320282515051224</v>
+      </c>
+      <c r="E94">
+        <v>-0.001287576408677934</v>
+      </c>
+      <c r="F94">
+        <v>-0.2441148690524767</v>
+      </c>
+      <c r="G94">
+        <v>-0.4217265230990568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1131763798255431</v>
+        <v>0.0838717534504205</v>
       </c>
       <c r="C95">
-        <v>-0.07274850579289109</v>
+        <v>0.06507588690400432</v>
       </c>
       <c r="D95">
-        <v>-0.1473961870725984</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1832104766037435</v>
+      </c>
+      <c r="E95">
+        <v>0.09018579345805154</v>
+      </c>
+      <c r="F95">
+        <v>0.5715240408178122</v>
+      </c>
+      <c r="G95">
+        <v>-0.7056722714195911</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1955313623449657</v>
+        <v>0.1872108935777068</v>
       </c>
       <c r="C98">
-        <v>-0.0220544249389108</v>
+        <v>0.04710619847932519</v>
       </c>
       <c r="D98">
-        <v>-0.1321418793777385</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1999440016682628</v>
+      </c>
+      <c r="E98">
+        <v>0.1317654419385397</v>
+      </c>
+      <c r="F98">
+        <v>-0.06227772463018807</v>
+      </c>
+      <c r="G98">
+        <v>0.08452843754118981</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005843419100580916</v>
+        <v>0.0045343995253045</v>
       </c>
       <c r="C101">
-        <v>-0.03505121407402317</v>
+        <v>0.03014374258475476</v>
       </c>
       <c r="D101">
-        <v>0.016074774731011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.015752582532631</v>
+      </c>
+      <c r="E101">
+        <v>-0.04835373589009415</v>
+      </c>
+      <c r="F101">
+        <v>0.08222914176709009</v>
+      </c>
+      <c r="G101">
+        <v>0.06329479605176742</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1242818287943972</v>
+        <v>0.1258095158603061</v>
       </c>
       <c r="C102">
-        <v>-0.07082679024257893</v>
+        <v>0.1018049327955068</v>
       </c>
       <c r="D102">
-        <v>0.04045478229538586</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05226326941859884</v>
+      </c>
+      <c r="E102">
+        <v>0.01160237200073353</v>
+      </c>
+      <c r="F102">
+        <v>0.01834978104896559</v>
+      </c>
+      <c r="G102">
+        <v>0.0001028120248399979</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
